--- a/data/trans_dic/P3A$personadelacasa-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A$personadelacasa-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1344463108825083</v>
+        <v>0.132497820683889</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1218938787986975</v>
+        <v>0.1210713653122696</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1340586349440787</v>
+        <v>0.1333767919339297</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1960279210728671</v>
+        <v>0.1918787523143179</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1602645552754034</v>
+        <v>0.1616140452268185</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.169389064164871</v>
+        <v>0.1684573342426829</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.2989277562574215</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3052013760397934</v>
+        <v>0.3052013760397935</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2881708024467268</v>
+        <v>0.2861089764607009</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2808743348107667</v>
+        <v>0.2781838739537101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2893129216423049</v>
+        <v>0.2885997054430237</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.33775233015369</v>
+        <v>0.3360933137591512</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3201779321456856</v>
+        <v>0.3189626172603309</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3205843178643389</v>
+        <v>0.321125984572764</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.2577654679907341</v>
+        <v>0.257765467990734</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.2480667935269207</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2229645608495</v>
+        <v>0.2170654605816649</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2196468955051913</v>
+        <v>0.2177781894474886</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2293580855166535</v>
+        <v>0.2316137355597483</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.298401664899556</v>
+        <v>0.2951545843114067</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.281899561055967</v>
+        <v>0.2804125988870897</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2768812093741767</v>
+        <v>0.2817944132091056</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.2760571288995941</v>
+        <v>0.2760571288995942</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.2541361116755658</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2588652085610283</v>
+        <v>0.2568871662941303</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2397337644223398</v>
+        <v>0.2399758500303996</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.252430365062574</v>
+        <v>0.2531914908916651</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.294016284952131</v>
+        <v>0.2945951983152549</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2680317927047287</v>
+        <v>0.2680690982597045</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2753510390024893</v>
+        <v>0.2769254149382605</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>77781</v>
+        <v>76654</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>100201</v>
+        <v>99525</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>187758</v>
+        <v>186803</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>113408</v>
+        <v>111007</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>131744</v>
+        <v>132853</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>237241</v>
+        <v>235936</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>642469</v>
+        <v>637872</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>609539</v>
+        <v>603700</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1272867</v>
+        <v>1269729</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>753010</v>
+        <v>749311</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>694833</v>
+        <v>692196</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1410449</v>
+        <v>1412832</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>158659</v>
+        <v>154461</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>161413</v>
+        <v>160040</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>331758</v>
+        <v>335021</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>212339</v>
+        <v>210028</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>207162</v>
+        <v>206069</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>400499</v>
+        <v>407605</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>911099</v>
+        <v>904138</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>893503</v>
+        <v>894405</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1829275</v>
+        <v>1834791</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1034817</v>
+        <v>1036854</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>998971</v>
+        <v>999110</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1995373</v>
+        <v>2006782</v>
       </c>
     </row>
     <row r="20">
